--- a/data/pca/factorExposure/factorExposure_2019-01-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-01-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.1096224675774002</v>
+        <v>0.06797344454825789</v>
       </c>
       <c r="C2">
-        <v>0.004651199416342762</v>
+        <v>0.035042610520884</v>
       </c>
       <c r="D2">
-        <v>0.06883323381815416</v>
+        <v>0.01653493902274927</v>
       </c>
       <c r="E2">
-        <v>0.01978274084928689</v>
+        <v>0.03996067350780547</v>
       </c>
       <c r="F2">
-        <v>0.1343808456738489</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.1356478591149239</v>
+      </c>
+      <c r="G2">
+        <v>-0.06908007223377095</v>
+      </c>
+      <c r="H2">
+        <v>-0.05045457553740453</v>
+      </c>
+      <c r="I2">
+        <v>-0.1069202108082395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.2168822719526363</v>
+        <v>0.1596721052580071</v>
       </c>
       <c r="C3">
-        <v>-0.1474558196672622</v>
+        <v>0.1074312187302071</v>
       </c>
       <c r="D3">
-        <v>0.0482928389535401</v>
+        <v>-0.009047031082045605</v>
       </c>
       <c r="E3">
-        <v>0.003821490226306466</v>
+        <v>-0.005743172831375719</v>
       </c>
       <c r="F3">
-        <v>0.3416281871239399</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.3796187494453778</v>
+      </c>
+      <c r="G3">
+        <v>-0.2798450312503502</v>
+      </c>
+      <c r="H3">
+        <v>-0.05233783458460952</v>
+      </c>
+      <c r="I3">
+        <v>-0.3641647877195419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.09700455858241901</v>
+        <v>0.07205654861453663</v>
       </c>
       <c r="C4">
-        <v>-0.03455904975596079</v>
+        <v>0.04841426834814183</v>
       </c>
       <c r="D4">
-        <v>0.04601281026044213</v>
+        <v>-0.01728131586778121</v>
       </c>
       <c r="E4">
-        <v>-0.02578991976796737</v>
+        <v>0.03904440506598623</v>
       </c>
       <c r="F4">
-        <v>0.0728191634337795</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.07880250975952981</v>
+      </c>
+      <c r="G4">
+        <v>-0.0330189607835543</v>
+      </c>
+      <c r="H4">
+        <v>-0.04762822328835294</v>
+      </c>
+      <c r="I4">
+        <v>-0.0539928927743386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.02115866990449074</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.009745695879934306</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.005128665904302323</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.005360090797397409</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.008478259246199014</v>
+      </c>
+      <c r="G6">
+        <v>0.01444235640597496</v>
+      </c>
+      <c r="H6">
+        <v>0.01823233422681338</v>
+      </c>
+      <c r="I6">
+        <v>0.004896459984668136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.04732832501562403</v>
+        <v>0.0348285656153035</v>
       </c>
       <c r="C7">
-        <v>-0.01282662964397844</v>
+        <v>0.01911279493027265</v>
       </c>
       <c r="D7">
-        <v>0.04251512709365781</v>
+        <v>-0.0369384223758046</v>
       </c>
       <c r="E7">
-        <v>0.005438387489409802</v>
+        <v>0.02801667624376608</v>
       </c>
       <c r="F7">
-        <v>0.05883654240713983</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.04872540447536061</v>
+      </c>
+      <c r="G7">
+        <v>-0.05068229746066324</v>
+      </c>
+      <c r="H7">
+        <v>0.00484895259339457</v>
+      </c>
+      <c r="I7">
+        <v>-0.03489520970644307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.05395343719655408</v>
+        <v>0.02829198425156787</v>
       </c>
       <c r="C8">
-        <v>-0.05511363638765769</v>
+        <v>0.05311042747722101</v>
       </c>
       <c r="D8">
-        <v>0.02926544269898595</v>
+        <v>-0.01433458309705165</v>
       </c>
       <c r="E8">
-        <v>-0.02465920296000357</v>
+        <v>0.01996589947136712</v>
       </c>
       <c r="F8">
-        <v>0.06948486140796632</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.07077139182550307</v>
+      </c>
+      <c r="G8">
+        <v>-0.04973930286193052</v>
+      </c>
+      <c r="H8">
+        <v>-0.03584638217223696</v>
+      </c>
+      <c r="I8">
+        <v>-0.06466891549752589</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.08259787005101604</v>
+        <v>0.06195282789049201</v>
       </c>
       <c r="C9">
-        <v>-0.02489908386016535</v>
+        <v>0.04395690818170413</v>
       </c>
       <c r="D9">
-        <v>0.05069564086751088</v>
+        <v>-0.02074558572312992</v>
       </c>
       <c r="E9">
-        <v>-0.04199440536949135</v>
+        <v>0.03583042647499177</v>
       </c>
       <c r="F9">
-        <v>0.05992046144276373</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.07880851766921729</v>
+      </c>
+      <c r="G9">
+        <v>-0.02796069439249811</v>
+      </c>
+      <c r="H9">
+        <v>-0.04315917204578274</v>
+      </c>
+      <c r="I9">
+        <v>-0.0294234689301629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.02070105624818267</v>
+        <v>0.03380066797584354</v>
       </c>
       <c r="C10">
-        <v>0.1534547133705378</v>
+        <v>-0.1615336466215263</v>
       </c>
       <c r="D10">
-        <v>-0.06470156533639571</v>
+        <v>0.01454029113587888</v>
       </c>
       <c r="E10">
-        <v>0.0425036338385547</v>
+        <v>-0.03619476538083852</v>
       </c>
       <c r="F10">
-        <v>0.06820289015276883</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.06704344555562884</v>
+      </c>
+      <c r="G10">
+        <v>-0.02982825564853176</v>
+      </c>
+      <c r="H10">
+        <v>-0.04048865240204971</v>
+      </c>
+      <c r="I10">
+        <v>-0.05267780502919117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.05962496648413814</v>
+        <v>0.04979073138473371</v>
       </c>
       <c r="C11">
-        <v>-0.01558402273311219</v>
+        <v>0.03291646479713611</v>
       </c>
       <c r="D11">
-        <v>0.009266957532417413</v>
+        <v>0.004638885964131101</v>
       </c>
       <c r="E11">
-        <v>0.009957676708730257</v>
+        <v>0.009320023462902413</v>
       </c>
       <c r="F11">
-        <v>0.04233207497935475</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.03742502484861626</v>
+      </c>
+      <c r="G11">
+        <v>-0.001986036778043366</v>
+      </c>
+      <c r="H11">
+        <v>-0.01595215470129202</v>
+      </c>
+      <c r="I11">
+        <v>-0.0267293369838992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.04877419846257596</v>
+        <v>0.04445047944539383</v>
       </c>
       <c r="C12">
-        <v>-0.02026418691147054</v>
+        <v>0.02951147321219764</v>
       </c>
       <c r="D12">
-        <v>0.00731488514208279</v>
+        <v>-0.00647935823535194</v>
       </c>
       <c r="E12">
-        <v>-0.008432424540507978</v>
+        <v>0.009962083792146904</v>
       </c>
       <c r="F12">
-        <v>0.02957665779104858</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01416591511500277</v>
+      </c>
+      <c r="G12">
+        <v>-0.004317855501133568</v>
+      </c>
+      <c r="H12">
+        <v>-0.004141200361203521</v>
+      </c>
+      <c r="I12">
+        <v>-0.01515453700138455</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.06219031296289496</v>
+        <v>0.04369018560582244</v>
       </c>
       <c r="C13">
-        <v>-0.02632753092541888</v>
+        <v>0.0289989331666212</v>
       </c>
       <c r="D13">
-        <v>0.02825127316531804</v>
+        <v>0.01383719967884532</v>
       </c>
       <c r="E13">
-        <v>0.03085694984410595</v>
+        <v>0.01103529817676889</v>
       </c>
       <c r="F13">
-        <v>0.1084007274434566</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.1026553074504186</v>
+      </c>
+      <c r="G13">
+        <v>-0.03827851301404001</v>
+      </c>
+      <c r="H13">
+        <v>-0.02597428231965092</v>
+      </c>
+      <c r="I13">
+        <v>-0.06121809068952742</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.03655525698663448</v>
+        <v>0.02686420427079824</v>
       </c>
       <c r="C14">
-        <v>-0.01958961229513276</v>
+        <v>0.02282081248990338</v>
       </c>
       <c r="D14">
-        <v>0.03853565625302415</v>
+        <v>-0.006964239798696405</v>
       </c>
       <c r="E14">
-        <v>-0.004596219475326451</v>
+        <v>0.02828752771917317</v>
       </c>
       <c r="F14">
-        <v>0.0219592375032867</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03493962601247727</v>
+      </c>
+      <c r="G14">
+        <v>-0.05621721830920107</v>
+      </c>
+      <c r="H14">
+        <v>-0.01066813919021843</v>
+      </c>
+      <c r="I14">
+        <v>-0.01717412281487885</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.05173525835443653</v>
+        <v>0.04297401577836562</v>
       </c>
       <c r="C16">
-        <v>-0.02357843239780885</v>
+        <v>0.03526544044001625</v>
       </c>
       <c r="D16">
-        <v>0.006772851072097372</v>
+        <v>-0.000947062158010248</v>
       </c>
       <c r="E16">
-        <v>0.003672270228520593</v>
+        <v>0.0070593652424936</v>
       </c>
       <c r="F16">
-        <v>0.03444472350736404</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.03403388123158471</v>
+      </c>
+      <c r="G16">
+        <v>-0.006022450298346423</v>
+      </c>
+      <c r="H16">
+        <v>-0.004751436713057491</v>
+      </c>
+      <c r="I16">
+        <v>-0.02769056068479311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.06725739724882786</v>
+        <v>0.05271433293404027</v>
       </c>
       <c r="C19">
-        <v>-0.04684051820535295</v>
+        <v>0.0464233431805587</v>
       </c>
       <c r="D19">
-        <v>0.02425917000459471</v>
+        <v>0.000143010547738404</v>
       </c>
       <c r="E19">
-        <v>0.001885045300204448</v>
+        <v>0.02112876830343237</v>
       </c>
       <c r="F19">
-        <v>0.08737915095388123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.09431530207955222</v>
+      </c>
+      <c r="G19">
+        <v>-0.0622719581146439</v>
+      </c>
+      <c r="H19">
+        <v>-0.01157781445059891</v>
+      </c>
+      <c r="I19">
+        <v>-0.0676313212367676</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.03332902521435271</v>
+        <v>0.01958880980923723</v>
       </c>
       <c r="C20">
-        <v>-0.03101597870833824</v>
+        <v>0.0303321839503201</v>
       </c>
       <c r="D20">
-        <v>0.04368962238787263</v>
+        <v>-0.007063579703775594</v>
       </c>
       <c r="E20">
-        <v>-0.01698525385981208</v>
+        <v>0.02012665074680116</v>
       </c>
       <c r="F20">
-        <v>0.06869396235165906</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.06364595500050807</v>
+      </c>
+      <c r="G20">
+        <v>-0.05841529978433267</v>
+      </c>
+      <c r="H20">
+        <v>-0.005975532010536571</v>
+      </c>
+      <c r="I20">
+        <v>-0.07611358024949007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.03859763985611036</v>
+        <v>0.03403163801014337</v>
       </c>
       <c r="C21">
-        <v>-0.03825662971885688</v>
+        <v>0.03179409536122658</v>
       </c>
       <c r="D21">
-        <v>0.01813884951417294</v>
+        <v>-0.01322548791207603</v>
       </c>
       <c r="E21">
-        <v>0.009577650771017363</v>
+        <v>0.006829289365074165</v>
       </c>
       <c r="F21">
-        <v>0.100401660290017</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.07953606089340751</v>
+      </c>
+      <c r="G21">
+        <v>-0.02318091290340688</v>
+      </c>
+      <c r="H21">
+        <v>-0.04778637445936366</v>
+      </c>
+      <c r="I21">
+        <v>-0.002149622270333511</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.05188106369653426</v>
+        <v>0.04192282844422807</v>
       </c>
       <c r="C24">
-        <v>-0.02099983591424871</v>
+        <v>0.03109950958708077</v>
       </c>
       <c r="D24">
-        <v>0.01305254235899582</v>
+        <v>-0.00152405144518416</v>
       </c>
       <c r="E24">
-        <v>-0.0008248855145566008</v>
+        <v>0.01065279442790264</v>
       </c>
       <c r="F24">
-        <v>0.043741274107864</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.03732618018256386</v>
+      </c>
+      <c r="G24">
+        <v>-0.0004545771544434513</v>
+      </c>
+      <c r="H24">
+        <v>-0.007862348323253774</v>
+      </c>
+      <c r="I24">
+        <v>-0.02878144146102183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.05299216370795348</v>
+        <v>0.0484301099193456</v>
       </c>
       <c r="C25">
-        <v>-0.01566143379718479</v>
+        <v>0.02727998302326521</v>
       </c>
       <c r="D25">
-        <v>0.008557430603875522</v>
+        <v>-0.0003468034301680409</v>
       </c>
       <c r="E25">
-        <v>0.001251379302871417</v>
+        <v>0.008618954702181825</v>
       </c>
       <c r="F25">
-        <v>0.04117879582771813</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.04294125928674305</v>
+      </c>
+      <c r="G25">
+        <v>-0.001450568467713989</v>
+      </c>
+      <c r="H25">
+        <v>-0.01398575701793293</v>
+      </c>
+      <c r="I25">
+        <v>-0.01886694783348739</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.02640316444280959</v>
+        <v>0.01865678197922614</v>
       </c>
       <c r="C26">
-        <v>-0.03116175569349837</v>
+        <v>0.0292221912267885</v>
       </c>
       <c r="D26">
-        <v>0.02721640299182753</v>
+        <v>0.003285252225015658</v>
       </c>
       <c r="E26">
-        <v>0.01805491800636004</v>
+        <v>0.002702490658290004</v>
       </c>
       <c r="F26">
-        <v>0.03131143522179441</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.04204649874315058</v>
+      </c>
+      <c r="G26">
+        <v>-0.03328550998849276</v>
+      </c>
+      <c r="H26">
+        <v>-0.01129948260618157</v>
+      </c>
+      <c r="I26">
+        <v>-0.0226071576063369</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>-0.1209201619786473</v>
+        <v>0.07290364642736223</v>
       </c>
       <c r="C27">
-        <v>-0.01643963823439487</v>
+        <v>0.0266383349205684</v>
       </c>
       <c r="D27">
-        <v>0.03835223249854481</v>
+        <v>-0.00596534659748334</v>
       </c>
       <c r="E27">
-        <v>-0.02413749094776807</v>
+        <v>0.03371842737532378</v>
       </c>
       <c r="F27">
-        <v>0.08196073532359389</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.06494215346062419</v>
+      </c>
+      <c r="G27">
+        <v>-0.02122507643824999</v>
+      </c>
+      <c r="H27">
+        <v>-0.02615199933218489</v>
+      </c>
+      <c r="I27">
+        <v>-0.03792915871126012</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.01981989652028841</v>
+        <v>0.0496048603655921</v>
       </c>
       <c r="C28">
-        <v>0.2280038358202718</v>
+        <v>-0.2456170774542667</v>
       </c>
       <c r="D28">
-        <v>-0.1065483429836259</v>
+        <v>0.01347960748671186</v>
       </c>
       <c r="E28">
-        <v>0.04141260423477038</v>
+        <v>-0.05166386612942987</v>
       </c>
       <c r="F28">
-        <v>0.0484500450202523</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.05793308071705904</v>
+      </c>
+      <c r="G28">
+        <v>-0.03792254702888541</v>
+      </c>
+      <c r="H28">
+        <v>-0.04326363880872144</v>
+      </c>
+      <c r="I28">
+        <v>-0.07607561350897006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.03162458003016844</v>
+        <v>0.0236765583965719</v>
       </c>
       <c r="C29">
-        <v>-0.01780607279599857</v>
+        <v>0.01958015104286836</v>
       </c>
       <c r="D29">
-        <v>0.03609457658915004</v>
+        <v>-0.01012422093682009</v>
       </c>
       <c r="E29">
-        <v>-0.01660153955914293</v>
+        <v>0.02861917138532499</v>
       </c>
       <c r="F29">
-        <v>0.0230374801295114</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.0311767422669189</v>
+      </c>
+      <c r="G29">
+        <v>-0.05686741627027608</v>
+      </c>
+      <c r="H29">
+        <v>-0.01480855264112635</v>
+      </c>
+      <c r="I29">
+        <v>-0.002094942322891846</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.1148596879320413</v>
+        <v>0.08969217064009906</v>
       </c>
       <c r="C30">
-        <v>-0.02055153415442074</v>
+        <v>0.05274729950232026</v>
       </c>
       <c r="D30">
-        <v>0.04089776374613815</v>
+        <v>0.03527159123175255</v>
       </c>
       <c r="E30">
-        <v>0.01043570178732967</v>
+        <v>0.03319137257181659</v>
       </c>
       <c r="F30">
-        <v>0.1068411744155782</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.1043111937808646</v>
+      </c>
+      <c r="G30">
+        <v>-0.01694201572887414</v>
+      </c>
+      <c r="H30">
+        <v>0.008375400902105512</v>
+      </c>
+      <c r="I30">
+        <v>-0.02400062652911262</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.0691857859266615</v>
+        <v>0.0607353181186371</v>
       </c>
       <c r="C31">
-        <v>-0.01479128440635044</v>
+        <v>0.02313273196179664</v>
       </c>
       <c r="D31">
-        <v>0.03290271694747287</v>
+        <v>0.008995587493491721</v>
       </c>
       <c r="E31">
-        <v>0.03006503365935881</v>
+        <v>0.0233295885704696</v>
       </c>
       <c r="F31">
-        <v>-0.03711237783485538</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.005306872036467908</v>
+      </c>
+      <c r="G31">
+        <v>-0.04973670409224065</v>
+      </c>
+      <c r="H31">
+        <v>-0.02998308744867041</v>
+      </c>
+      <c r="I31">
+        <v>-0.0124407364755153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.07307620824419894</v>
+        <v>0.04289925171423624</v>
       </c>
       <c r="C32">
-        <v>-0.03475915188415282</v>
+        <v>0.04725395111938192</v>
       </c>
       <c r="D32">
-        <v>0.03667860029401713</v>
+        <v>-0.01733353021290086</v>
       </c>
       <c r="E32">
-        <v>-0.01169231737200902</v>
+        <v>0.0354720480604301</v>
       </c>
       <c r="F32">
-        <v>0.09154875117351047</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.08194811692288159</v>
+      </c>
+      <c r="G32">
+        <v>-0.04346291098617926</v>
+      </c>
+      <c r="H32">
+        <v>-0.02359904266151331</v>
+      </c>
+      <c r="I32">
+        <v>-0.05163298474661976</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.07178636670765182</v>
+        <v>0.05660079434680546</v>
       </c>
       <c r="C33">
-        <v>-0.05573089254033848</v>
+        <v>0.05739771705855806</v>
       </c>
       <c r="D33">
-        <v>0.04134599776447026</v>
+        <v>0.01654432502394704</v>
       </c>
       <c r="E33">
-        <v>0.01493062480879372</v>
+        <v>0.01361699752129019</v>
       </c>
       <c r="F33">
-        <v>0.06606710855791531</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.07227625139448486</v>
+      </c>
+      <c r="G33">
+        <v>-0.04463797878880513</v>
+      </c>
+      <c r="H33">
+        <v>-0.03502868954952779</v>
+      </c>
+      <c r="I33">
+        <v>-0.02983245508089422</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.05194492160009206</v>
+        <v>0.04383730225663866</v>
       </c>
       <c r="C34">
-        <v>-0.01998373503186406</v>
+        <v>0.03481168069604826</v>
       </c>
       <c r="D34">
-        <v>0.01638270914397052</v>
+        <v>-0.006126825699337718</v>
       </c>
       <c r="E34">
-        <v>-0.001548494956979027</v>
+        <v>0.01614528884343343</v>
       </c>
       <c r="F34">
-        <v>0.02808277387967015</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.03303448530615253</v>
+      </c>
+      <c r="G34">
+        <v>-0.008156218122462424</v>
+      </c>
+      <c r="H34">
+        <v>-0.008493418756359694</v>
+      </c>
+      <c r="I34">
+        <v>-0.02364569139404157</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.01775756576825341</v>
+        <v>0.01592057324197904</v>
       </c>
       <c r="C36">
-        <v>-0.002337160835537231</v>
+        <v>0.005752027139548928</v>
       </c>
       <c r="D36">
-        <v>0.01298197758834661</v>
+        <v>-0.004988834282265484</v>
       </c>
       <c r="E36">
-        <v>-0.005649821379394401</v>
+        <v>0.009922569971553412</v>
       </c>
       <c r="F36">
-        <v>0.01589427787597594</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.02374185016378303</v>
+      </c>
+      <c r="G36">
+        <v>-0.04042112209072558</v>
+      </c>
+      <c r="H36">
+        <v>-0.01701293174201655</v>
+      </c>
+      <c r="I36">
+        <v>0.008615701901501831</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.0447091171497698</v>
+        <v>0.03496315578349785</v>
       </c>
       <c r="C38">
-        <v>-0.01360413077902974</v>
+        <v>0.01710999730287114</v>
       </c>
       <c r="D38">
-        <v>0.02366612776853486</v>
+        <v>-0.004875673308672227</v>
       </c>
       <c r="E38">
-        <v>-0.02078166981447605</v>
+        <v>0.01210646557884342</v>
       </c>
       <c r="F38">
-        <v>0.02208299810613306</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.04724772212966061</v>
+      </c>
+      <c r="G38">
+        <v>-0.02895724361323847</v>
+      </c>
+      <c r="H38">
+        <v>-0.02336401047762011</v>
+      </c>
+      <c r="I38">
+        <v>0.01036889833649444</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.07251838083871168</v>
+        <v>0.05513947765079404</v>
       </c>
       <c r="C39">
-        <v>-0.02051975002726606</v>
+        <v>0.04798024168293755</v>
       </c>
       <c r="D39">
-        <v>0.02527999878203415</v>
+        <v>0.003078914216001496</v>
       </c>
       <c r="E39">
-        <v>0.01445624372686194</v>
+        <v>0.01892907091035473</v>
       </c>
       <c r="F39">
-        <v>0.03561444272552321</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.05427191318442368</v>
+      </c>
+      <c r="G39">
+        <v>0.0005978390663715499</v>
+      </c>
+      <c r="H39">
+        <v>-0.02224630455660402</v>
+      </c>
+      <c r="I39">
+        <v>-0.006747760872625295</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.07633902500661204</v>
+        <v>0.0557297682400046</v>
       </c>
       <c r="C40">
-        <v>-0.0196942202111692</v>
+        <v>0.04321810020594137</v>
       </c>
       <c r="D40">
-        <v>0.05798626058448249</v>
+        <v>0.01910694639279723</v>
       </c>
       <c r="E40">
-        <v>0.03580706150590537</v>
+        <v>0.02458119056001132</v>
       </c>
       <c r="F40">
-        <v>0.1096582401763938</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.09513054871264091</v>
+      </c>
+      <c r="G40">
+        <v>-0.03919809431670519</v>
+      </c>
+      <c r="H40">
+        <v>-0.02635133590378659</v>
+      </c>
+      <c r="I40">
+        <v>-0.1059632395612602</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.003445438309307746</v>
+        <v>0.003408691568709708</v>
       </c>
       <c r="C41">
-        <v>-0.02449567859320051</v>
+        <v>0.01163251296604667</v>
       </c>
       <c r="D41">
-        <v>0.03374186393631277</v>
+        <v>-0.0005232538988189926</v>
       </c>
       <c r="E41">
-        <v>-0.009350018385356986</v>
+        <v>0.01015545176662593</v>
       </c>
       <c r="F41">
-        <v>-0.004693993189394532</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.010010065125348</v>
+      </c>
+      <c r="G41">
+        <v>-0.04830721489778418</v>
+      </c>
+      <c r="H41">
+        <v>-0.0342690141368753</v>
+      </c>
+      <c r="I41">
+        <v>-0.01337237046235178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>-0.182294026038865</v>
+        <v>0.2252908613355538</v>
       </c>
       <c r="C42">
-        <v>-0.4913471990856795</v>
+        <v>0.2558996809910087</v>
       </c>
       <c r="D42">
-        <v>-0.7690466437373736</v>
+        <v>0.04531250179803998</v>
       </c>
       <c r="E42">
-        <v>0.2803839168794714</v>
+        <v>-0.9079221813617675</v>
       </c>
       <c r="F42">
-        <v>-0.0928746679660182</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.1654260517715713</v>
+      </c>
+      <c r="G42">
+        <v>0.004612268358067178</v>
+      </c>
+      <c r="H42">
+        <v>0.00698990873909204</v>
+      </c>
+      <c r="I42">
+        <v>-0.0554338093854822</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.007326283665782114</v>
+        <v>0.008453244824987875</v>
       </c>
       <c r="C43">
-        <v>-0.02554356555469061</v>
+        <v>0.01514986973885588</v>
       </c>
       <c r="D43">
-        <v>0.03319459067552145</v>
+        <v>0.002060663183937537</v>
       </c>
       <c r="E43">
-        <v>-0.002675117831407948</v>
+        <v>0.009724066740718719</v>
       </c>
       <c r="F43">
-        <v>0.02351318049091694</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.02420173336573672</v>
+      </c>
+      <c r="G43">
+        <v>-0.03513504248811946</v>
+      </c>
+      <c r="H43">
+        <v>-0.02015195557461134</v>
+      </c>
+      <c r="I43">
+        <v>-0.0238285923743344</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.0459785549084639</v>
+        <v>0.03047328853702824</v>
       </c>
       <c r="C44">
-        <v>-0.04534206336090923</v>
+        <v>0.0430784792313102</v>
       </c>
       <c r="D44">
-        <v>0.04418154538569566</v>
+        <v>-0.003884344231933453</v>
       </c>
       <c r="E44">
-        <v>0.006754595862083972</v>
+        <v>0.01627133570498076</v>
       </c>
       <c r="F44">
-        <v>0.1148949826233547</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.1168608442488979</v>
+      </c>
+      <c r="G44">
+        <v>-0.094693726899577</v>
+      </c>
+      <c r="H44">
+        <v>-0.0443994587353165</v>
+      </c>
+      <c r="I44">
+        <v>-0.05476463942717561</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.03353505826901883</v>
+        <v>0.02678997459974799</v>
       </c>
       <c r="C46">
-        <v>-0.02235788667295349</v>
+        <v>0.0356149340103599</v>
       </c>
       <c r="D46">
-        <v>0.03985500364172199</v>
+        <v>0.001932130243228772</v>
       </c>
       <c r="E46">
-        <v>-0.001357887787721017</v>
+        <v>0.03147916704670264</v>
       </c>
       <c r="F46">
-        <v>0.01957772350648826</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.04347708637586038</v>
+      </c>
+      <c r="G46">
+        <v>-0.06012361353667349</v>
+      </c>
+      <c r="H46">
+        <v>-0.01194996781217516</v>
+      </c>
+      <c r="I46">
+        <v>-0.008272791261809534</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.09694387840192768</v>
+        <v>0.08726861007582923</v>
       </c>
       <c r="C47">
-        <v>-0.006920117693151973</v>
+        <v>0.0197604194925288</v>
       </c>
       <c r="D47">
-        <v>0.03019117783435065</v>
+        <v>0.003782881804328823</v>
       </c>
       <c r="E47">
-        <v>-0.005168472273417201</v>
+        <v>0.02917634382894903</v>
       </c>
       <c r="F47">
-        <v>-0.02993037679839586</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.01801207218805352</v>
+      </c>
+      <c r="G47">
+        <v>-0.06420593770828284</v>
+      </c>
+      <c r="H47">
+        <v>-0.02286848421647233</v>
+      </c>
+      <c r="I47">
+        <v>-0.03438232671716681</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.02125401151075007</v>
+        <v>0.02076214843616776</v>
       </c>
       <c r="C48">
-        <v>-0.02094079869634213</v>
+        <v>0.01789384042513919</v>
       </c>
       <c r="D48">
-        <v>0.02686606225887772</v>
+        <v>-0.001543544160978524</v>
       </c>
       <c r="E48">
-        <v>0.0002202587421245859</v>
+        <v>0.01344304342253776</v>
       </c>
       <c r="F48">
-        <v>0.02179054435607853</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.02580656140266068</v>
+      </c>
+      <c r="G48">
+        <v>-0.02903206074908039</v>
+      </c>
+      <c r="H48">
+        <v>-0.01575848590511894</v>
+      </c>
+      <c r="I48">
+        <v>-0.009884695540729436</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.09429319592319209</v>
+        <v>0.08883178962502807</v>
       </c>
       <c r="C50">
-        <v>-0.03003487017648301</v>
+        <v>0.03926262840338056</v>
       </c>
       <c r="D50">
-        <v>0.03444451513332969</v>
+        <v>-0.01203536876792198</v>
       </c>
       <c r="E50">
-        <v>0.004827457683826798</v>
+        <v>0.02635007402511181</v>
       </c>
       <c r="F50">
-        <v>-0.03075972772636962</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.01007040054615862</v>
+      </c>
+      <c r="G50">
+        <v>-0.03656901662053572</v>
+      </c>
+      <c r="H50">
+        <v>0.01188709652462478</v>
+      </c>
+      <c r="I50">
+        <v>0.004898144133229287</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.05877948137237704</v>
+        <v>0.03961380802837385</v>
       </c>
       <c r="C51">
-        <v>0.01513286015998544</v>
+        <v>-0.003110148456930997</v>
       </c>
       <c r="D51">
-        <v>0.02068084427782978</v>
+        <v>0.01089553462655678</v>
       </c>
       <c r="E51">
-        <v>0.03522299176640645</v>
+        <v>0.01102860765541278</v>
       </c>
       <c r="F51">
-        <v>0.06568322888890057</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.09139316114811991</v>
+      </c>
+      <c r="G51">
+        <v>-0.07155695301245887</v>
+      </c>
+      <c r="H51">
+        <v>-0.04815212610419727</v>
+      </c>
+      <c r="I51">
+        <v>-0.03024821279883783</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1368375562444728</v>
+        <v>0.125200200383496</v>
       </c>
       <c r="C53">
-        <v>-0.008433065848790189</v>
+        <v>0.03697018384271296</v>
       </c>
       <c r="D53">
-        <v>0.05774330150898172</v>
+        <v>0.004033774774006298</v>
       </c>
       <c r="E53">
-        <v>0.001386047289463939</v>
+        <v>0.05544397874745104</v>
       </c>
       <c r="F53">
-        <v>-0.06187885080293205</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.04821292045012397</v>
+      </c>
+      <c r="G53">
+        <v>-0.01338433345755307</v>
+      </c>
+      <c r="H53">
+        <v>-0.03076131634888351</v>
+      </c>
+      <c r="I53">
+        <v>-0.04028747752618547</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.02987338834955703</v>
+        <v>0.02760924786070667</v>
       </c>
       <c r="C54">
-        <v>-0.003460219921824765</v>
+        <v>0.006689154809586578</v>
       </c>
       <c r="D54">
-        <v>0.03472364211376788</v>
+        <v>-0.005496595056978641</v>
       </c>
       <c r="E54">
-        <v>-0.008794856808423299</v>
+        <v>0.03014938155719632</v>
       </c>
       <c r="F54">
-        <v>0.02449630125246638</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.02935033984702215</v>
+      </c>
+      <c r="G54">
+        <v>-0.0557820664589544</v>
+      </c>
+      <c r="H54">
+        <v>-0.02970234713383285</v>
+      </c>
+      <c r="I54">
+        <v>-0.003219633184927021</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.106756625243301</v>
+        <v>0.09758692700279172</v>
       </c>
       <c r="C55">
-        <v>0.007828155976676776</v>
+        <v>0.03037893927669317</v>
       </c>
       <c r="D55">
-        <v>0.02706621825997275</v>
+        <v>-0.01384055918665041</v>
       </c>
       <c r="E55">
-        <v>-0.04221529955711723</v>
+        <v>0.03739290398563465</v>
       </c>
       <c r="F55">
-        <v>-0.0199037012757496</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.03599616814880091</v>
+      </c>
+      <c r="G55">
+        <v>-0.02063873857203761</v>
+      </c>
+      <c r="H55">
+        <v>0.01176470088998274</v>
+      </c>
+      <c r="I55">
+        <v>-0.0216319463790502</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1706931567205808</v>
+        <v>0.1648418955269961</v>
       </c>
       <c r="C56">
-        <v>0.04619678417579326</v>
+        <v>0.01827785821095184</v>
       </c>
       <c r="D56">
-        <v>0.07560322999488525</v>
+        <v>-0.0001987160729226646</v>
       </c>
       <c r="E56">
-        <v>-0.03529868629482466</v>
+        <v>0.08866168642910149</v>
       </c>
       <c r="F56">
-        <v>-0.1048242486780795</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.09310973070578307</v>
+      </c>
+      <c r="G56">
+        <v>0.04104579920549097</v>
+      </c>
+      <c r="H56">
+        <v>0.003957039323921529</v>
+      </c>
+      <c r="I56">
+        <v>-0.04525999624345682</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>-0.08683160005898646</v>
+        <v>0.0682306935897049</v>
       </c>
       <c r="C57">
-        <v>-0.02169105597475504</v>
+        <v>0.03183471536118752</v>
       </c>
       <c r="D57">
-        <v>0.03002983846899362</v>
+        <v>0.01875548526188505</v>
       </c>
       <c r="E57">
-        <v>0.03124997933917503</v>
+        <v>0.00474538251664732</v>
       </c>
       <c r="F57">
-        <v>0.0415138000595207</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.06667854598617406</v>
+      </c>
+      <c r="G57">
+        <v>-0.02324528071651374</v>
+      </c>
+      <c r="H57">
+        <v>-0.01776493899784348</v>
+      </c>
+      <c r="I57">
+        <v>-0.02569442101748858</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.199853114942538</v>
+        <v>0.209680014531125</v>
       </c>
       <c r="C58">
-        <v>-0.03741911228136193</v>
+        <v>0.1044525239079495</v>
       </c>
       <c r="D58">
-        <v>0.04010390566967947</v>
+        <v>0.08768186440004724</v>
       </c>
       <c r="E58">
-        <v>0.05649324702423179</v>
+        <v>-0.01503144068385345</v>
       </c>
       <c r="F58">
-        <v>0.1194439039067895</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.2753880978214776</v>
+      </c>
+      <c r="G58">
+        <v>-0.3471221497569759</v>
+      </c>
+      <c r="H58">
+        <v>0.3700102863461359</v>
+      </c>
+      <c r="I58">
+        <v>0.6871663184447951</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.01978902496861773</v>
+        <v>0.04823918522051234</v>
       </c>
       <c r="C59">
-        <v>0.1887547467391206</v>
+        <v>-0.2003706314088856</v>
       </c>
       <c r="D59">
-        <v>-0.05844603758229647</v>
+        <v>0.02563409107985497</v>
       </c>
       <c r="E59">
-        <v>0.02721436386597281</v>
+        <v>-0.01706655507316564</v>
       </c>
       <c r="F59">
-        <v>0.05064615375518965</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.06921498130068629</v>
+      </c>
+      <c r="G59">
+        <v>0.003497478206533537</v>
+      </c>
+      <c r="H59">
+        <v>-0.01793686544169893</v>
+      </c>
+      <c r="I59">
+        <v>-0.01794916162011692</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1829046881742945</v>
+        <v>0.1903524564817083</v>
       </c>
       <c r="C60">
-        <v>0.0823252196772396</v>
+        <v>-0.05123111308749344</v>
       </c>
       <c r="D60">
-        <v>0.004753482578553929</v>
+        <v>0.05266475157111234</v>
       </c>
       <c r="E60">
-        <v>0.08418754219477588</v>
+        <v>0.01068143923487492</v>
       </c>
       <c r="F60">
-        <v>0.1779588046584722</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.2018256684146358</v>
+      </c>
+      <c r="G60">
+        <v>0.317862832916978</v>
+      </c>
+      <c r="H60">
+        <v>-0.0433960840278432</v>
+      </c>
+      <c r="I60">
+        <v>0.0316844794093425</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.04388953963515368</v>
+        <v>0.039189615858364</v>
       </c>
       <c r="C61">
-        <v>-0.01360184142458043</v>
+        <v>0.03180899287933799</v>
       </c>
       <c r="D61">
-        <v>0.01181213920200652</v>
+        <v>-0.002755480499180729</v>
       </c>
       <c r="E61">
-        <v>-0.002800935102209081</v>
+        <v>0.009844125191901355</v>
       </c>
       <c r="F61">
-        <v>0.03285543624488929</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03611091818766079</v>
+      </c>
+      <c r="G61">
+        <v>0.004490681737428136</v>
+      </c>
+      <c r="H61">
+        <v>-0.01312742589350119</v>
+      </c>
+      <c r="I61">
+        <v>0.005559295826325583</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.04212122343236717</v>
+        <v>0.03151137803337502</v>
       </c>
       <c r="C63">
-        <v>-0.01348011515208015</v>
+        <v>0.02380022120008566</v>
       </c>
       <c r="D63">
-        <v>0.02572426738544775</v>
+        <v>0.0009444931292706619</v>
       </c>
       <c r="E63">
-        <v>0.008184545037415147</v>
+        <v>0.01445083370194665</v>
       </c>
       <c r="F63">
-        <v>0.0330385080148891</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.0274389307684075</v>
+      </c>
+      <c r="G63">
+        <v>-0.05151084391846592</v>
+      </c>
+      <c r="H63">
+        <v>-0.001584895223962923</v>
+      </c>
+      <c r="I63">
+        <v>-0.03484401659533874</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.06459563543919043</v>
+        <v>0.05676180215380094</v>
       </c>
       <c r="C64">
-        <v>-0.02351286625115212</v>
+        <v>0.03272878346797594</v>
       </c>
       <c r="D64">
-        <v>0.02379600803294151</v>
+        <v>-0.01200230070322041</v>
       </c>
       <c r="E64">
-        <v>-0.02794585577615681</v>
+        <v>0.02037803109452457</v>
       </c>
       <c r="F64">
-        <v>0.03341163749100262</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.03862403621998083</v>
+      </c>
+      <c r="G64">
+        <v>-0.03124993853544796</v>
+      </c>
+      <c r="H64">
+        <v>-0.0539954406162906</v>
+      </c>
+      <c r="I64">
+        <v>-0.03564966388935528</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.02316861783402208</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.00981350250193389</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.005654940353658106</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.005878741482724986</v>
       </c>
       <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.005143440294867645</v>
+      </c>
+      <c r="G65">
+        <v>0.01878724262895522</v>
+      </c>
+      <c r="H65">
+        <v>0.01661012055976437</v>
+      </c>
+      <c r="I65">
+        <v>0.004375750049334109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.08071028827550412</v>
+        <v>0.06810955399974497</v>
       </c>
       <c r="C66">
-        <v>-0.02855049727337917</v>
+        <v>0.05691379378943421</v>
       </c>
       <c r="D66">
-        <v>0.0495895397030704</v>
+        <v>0.00999967020483305</v>
       </c>
       <c r="E66">
-        <v>0.001114125218368055</v>
+        <v>0.0472048015447666</v>
       </c>
       <c r="F66">
-        <v>0.07298471436353202</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.06673292863462874</v>
+      </c>
+      <c r="G66">
+        <v>0.004898615170773194</v>
+      </c>
+      <c r="H66">
+        <v>-0.0106969938189892</v>
+      </c>
+      <c r="I66">
+        <v>-0.04090657143906464</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.05502681566295836</v>
+        <v>0.04740428979249723</v>
       </c>
       <c r="C67">
-        <v>0.009403232316064655</v>
+        <v>-0.0008121452877561609</v>
       </c>
       <c r="D67">
-        <v>0.007382190886181451</v>
+        <v>0.001277009065722086</v>
       </c>
       <c r="E67">
-        <v>-0.007477387235441424</v>
+        <v>0.01002614955631813</v>
       </c>
       <c r="F67">
-        <v>0.01798479083409408</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.03573040787311405</v>
+      </c>
+      <c r="G67">
+        <v>-0.01140115372528842</v>
+      </c>
+      <c r="H67">
+        <v>-0.03647789956057104</v>
+      </c>
+      <c r="I67">
+        <v>0.02445033755413827</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.03569968040145988</v>
+        <v>0.05948962330291384</v>
       </c>
       <c r="C68">
-        <v>0.2227802168067424</v>
+        <v>-0.2360334010799915</v>
       </c>
       <c r="D68">
-        <v>-0.09586477548678329</v>
+        <v>0.02690111623228574</v>
       </c>
       <c r="E68">
-        <v>0.03860777374908687</v>
+        <v>-0.03781374371774307</v>
       </c>
       <c r="F68">
-        <v>0.04450190323577854</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.05111132660829893</v>
+      </c>
+      <c r="G68">
+        <v>-0.01661375864707231</v>
+      </c>
+      <c r="H68">
+        <v>0.00291042906472534</v>
+      </c>
+      <c r="I68">
+        <v>-0.03981116813682749</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.08137790720166939</v>
+        <v>0.0733950712996469</v>
       </c>
       <c r="C69">
-        <v>-0.003248587606508654</v>
+        <v>0.02018586846082694</v>
       </c>
       <c r="D69">
-        <v>0.02848398956842768</v>
+        <v>0.005216968428725212</v>
       </c>
       <c r="E69">
-        <v>-0.0008083291574010789</v>
+        <v>0.03143291661902715</v>
       </c>
       <c r="F69">
-        <v>-0.02012686569199731</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.005579901589294192</v>
+      </c>
+      <c r="G69">
+        <v>-0.03787958116072092</v>
+      </c>
+      <c r="H69">
+        <v>-0.02062343205735225</v>
+      </c>
+      <c r="I69">
+        <v>-0.0164917344280647</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.03035769996864785</v>
+        <v>0.05445152257420819</v>
       </c>
       <c r="C71">
-        <v>0.2662560312433908</v>
+        <v>-0.2573098333737531</v>
       </c>
       <c r="D71">
-        <v>-0.113006395070485</v>
+        <v>0.03180874693760655</v>
       </c>
       <c r="E71">
-        <v>0.08303622079683609</v>
+        <v>-0.0649611735153524</v>
       </c>
       <c r="F71">
-        <v>0.07890122943874245</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.0715604650264539</v>
+      </c>
+      <c r="G71">
+        <v>-0.02425432248999493</v>
+      </c>
+      <c r="H71">
+        <v>-0.02272210133779753</v>
+      </c>
+      <c r="I71">
+        <v>-0.0487943143887322</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1283426214213315</v>
+        <v>0.1245523089565901</v>
       </c>
       <c r="C72">
-        <v>0.0312968628585573</v>
+        <v>0.03213284399077408</v>
       </c>
       <c r="D72">
-        <v>0.04641314997997013</v>
+        <v>0.003065751203487022</v>
       </c>
       <c r="E72">
-        <v>-0.0004874896484910556</v>
+        <v>0.069497337358189</v>
       </c>
       <c r="F72">
-        <v>0.06736531669303344</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.08011994127481042</v>
+      </c>
+      <c r="G72">
+        <v>0.03565160551021924</v>
+      </c>
+      <c r="H72">
+        <v>0.03605753281301667</v>
+      </c>
+      <c r="I72">
+        <v>0.1230015479339156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2758463222033942</v>
+        <v>0.2707612176677576</v>
       </c>
       <c r="C73">
-        <v>0.1493901736837518</v>
+        <v>-0.07201603997198294</v>
       </c>
       <c r="D73">
-        <v>-0.06095143543923509</v>
+        <v>0.0908956328710223</v>
       </c>
       <c r="E73">
-        <v>0.1328917096074838</v>
+        <v>-0.03659205936829119</v>
       </c>
       <c r="F73">
-        <v>0.339501278841688</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.3125638009968111</v>
+      </c>
+      <c r="G73">
+        <v>0.5349427655030906</v>
+      </c>
+      <c r="H73">
+        <v>0.003350381568978843</v>
+      </c>
+      <c r="I73">
+        <v>0.1098086263268635</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1555060509541196</v>
+        <v>0.1501168789344249</v>
       </c>
       <c r="C74">
-        <v>0.002361261843094602</v>
+        <v>0.03312323765928576</v>
       </c>
       <c r="D74">
-        <v>0.0440853700588008</v>
+        <v>0.01115840759229178</v>
       </c>
       <c r="E74">
-        <v>0.006038165366221963</v>
+        <v>0.05236204997913437</v>
       </c>
       <c r="F74">
-        <v>-0.05017162369349525</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.0664842530619312</v>
+      </c>
+      <c r="G74">
+        <v>0.02692429096202242</v>
+      </c>
+      <c r="H74">
+        <v>0.006034606964034531</v>
+      </c>
+      <c r="I74">
+        <v>-0.07028549563767322</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2296764737356753</v>
+        <v>0.2463173177523583</v>
       </c>
       <c r="C75">
-        <v>0.03454233188234316</v>
+        <v>0.02169449835319764</v>
       </c>
       <c r="D75">
-        <v>0.07846339297413915</v>
+        <v>0.02774649475698122</v>
       </c>
       <c r="E75">
-        <v>0.001169364735422465</v>
+        <v>0.1165853662420605</v>
       </c>
       <c r="F75">
-        <v>-0.1465478429920133</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1460459600361583</v>
+      </c>
+      <c r="G75">
+        <v>0.01426873617217104</v>
+      </c>
+      <c r="H75">
+        <v>-0.01452666717647098</v>
+      </c>
+      <c r="I75">
+        <v>-0.04703191835372876</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.2490457118630127</v>
+        <v>0.2639300723027965</v>
       </c>
       <c r="C76">
-        <v>0.06967778995919445</v>
+        <v>0.006753639400461565</v>
       </c>
       <c r="D76">
-        <v>0.07911432293864908</v>
+        <v>-0.01267971230732419</v>
       </c>
       <c r="E76">
-        <v>-0.06935156773031656</v>
+        <v>0.1386362144350097</v>
       </c>
       <c r="F76">
-        <v>-0.1334155323850995</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1821486132346434</v>
+      </c>
+      <c r="G76">
+        <v>0.04058521547510346</v>
+      </c>
+      <c r="H76">
+        <v>0.05672769514008454</v>
+      </c>
+      <c r="I76">
+        <v>-0.05626764290624871</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.1364586938613774</v>
+        <v>0.1201908825819617</v>
       </c>
       <c r="C77">
-        <v>-0.06329918220846192</v>
+        <v>0.0736990248078153</v>
       </c>
       <c r="D77">
-        <v>0.0129186280993894</v>
+        <v>0.004515751326047778</v>
       </c>
       <c r="E77">
-        <v>0.01597890576120194</v>
+        <v>-0.03426466050298474</v>
       </c>
       <c r="F77">
-        <v>0.1571835139603223</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.1594950724134115</v>
+      </c>
+      <c r="G77">
+        <v>-0.208199778208847</v>
+      </c>
+      <c r="H77">
+        <v>0.04240421864227133</v>
+      </c>
+      <c r="I77">
+        <v>-0.2437838806323103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.09694449411298409</v>
+        <v>0.07254864691017084</v>
       </c>
       <c r="C78">
-        <v>-0.07442753192467627</v>
+        <v>0.07615499234687699</v>
       </c>
       <c r="D78">
-        <v>0.01245176700999406</v>
+        <v>-0.007837318598124796</v>
       </c>
       <c r="E78">
-        <v>-0.005417867670746287</v>
+        <v>0.006464384084158572</v>
       </c>
       <c r="F78">
-        <v>0.04967401843874272</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.06623052653411121</v>
+      </c>
+      <c r="G78">
+        <v>-0.01994670344485832</v>
+      </c>
+      <c r="H78">
+        <v>-0.01833140344957097</v>
+      </c>
+      <c r="I78">
+        <v>-0.04601665090365489</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.1022702205923529</v>
+        <v>0.1354036809899811</v>
       </c>
       <c r="C80">
-        <v>-0.007264831003320656</v>
+        <v>-0.08260545887100054</v>
       </c>
       <c r="D80">
-        <v>-0.3309211606723589</v>
+        <v>-0.9727711344231806</v>
       </c>
       <c r="E80">
-        <v>-0.9077691723679987</v>
+        <v>-0.05838515593919193</v>
       </c>
       <c r="F80">
-        <v>0.1214253044243271</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.0450373891033919</v>
+      </c>
+      <c r="G80">
+        <v>0.02954780439038495</v>
+      </c>
+      <c r="H80">
+        <v>-0.03955658574936738</v>
+      </c>
+      <c r="I80">
+        <v>0.09598472970804185</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1584512635440984</v>
+        <v>0.181056099055682</v>
       </c>
       <c r="C81">
-        <v>0.02222559938577764</v>
+        <v>0.007560217557133566</v>
       </c>
       <c r="D81">
-        <v>0.04627923423377413</v>
+        <v>0.006468101144157092</v>
       </c>
       <c r="E81">
-        <v>-0.01906938714232803</v>
+        <v>0.0871254701082247</v>
       </c>
       <c r="F81">
-        <v>-0.1773451643162371</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1591347803792774</v>
+      </c>
+      <c r="G81">
+        <v>-0.004419218812119849</v>
+      </c>
+      <c r="H81">
+        <v>0.02782714604536849</v>
+      </c>
+      <c r="I81">
+        <v>-0.01543158795586547</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.09410508499531284</v>
+        <v>0.06898321707544805</v>
       </c>
       <c r="C83">
-        <v>-0.08784976032794983</v>
+        <v>0.05644590175275491</v>
       </c>
       <c r="D83">
-        <v>-0.022029903182524</v>
+        <v>0.01224945023922165</v>
       </c>
       <c r="E83">
-        <v>0.04438013751968663</v>
+        <v>-0.03549834638926946</v>
       </c>
       <c r="F83">
-        <v>0.01175737751643865</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.04577380729630788</v>
+      </c>
+      <c r="G83">
+        <v>-0.05160835547595852</v>
+      </c>
+      <c r="H83">
+        <v>-0.06492206207579672</v>
+      </c>
+      <c r="I83">
+        <v>-0.04984273941868389</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.2373565072966453</v>
+        <v>0.2499778625973177</v>
       </c>
       <c r="C85">
-        <v>-0.00582092751962856</v>
+        <v>0.0494732361861476</v>
       </c>
       <c r="D85">
-        <v>0.07159647498605429</v>
+        <v>0.005208010250625671</v>
       </c>
       <c r="E85">
-        <v>-0.06205831428414504</v>
+        <v>0.1112361547322345</v>
       </c>
       <c r="F85">
-        <v>-0.1521277190955846</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1821262646988869</v>
+      </c>
+      <c r="G85">
+        <v>-0.009524420393121819</v>
+      </c>
+      <c r="H85">
+        <v>0.02382597456843205</v>
+      </c>
+      <c r="I85">
+        <v>-0.07369791510391911</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.04091842287503537</v>
+        <v>0.02812019797241478</v>
       </c>
       <c r="C86">
-        <v>-0.04569242161696596</v>
+        <v>0.05369398947409414</v>
       </c>
       <c r="D86">
-        <v>0.03549649752549277</v>
+        <v>-0.000392666611536844</v>
       </c>
       <c r="E86">
-        <v>0.007416711742366</v>
+        <v>0.01567420831028126</v>
       </c>
       <c r="F86">
-        <v>0.06664179012113823</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.07940207189940217</v>
+      </c>
+      <c r="G86">
+        <v>-0.06440883372445898</v>
+      </c>
+      <c r="H86">
+        <v>-0.002486571382229367</v>
+      </c>
+      <c r="I86">
+        <v>-0.05566597816097488</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.01773003046290175</v>
+        <v>0.0276742677624339</v>
       </c>
       <c r="C87">
-        <v>0.03635606336930466</v>
+        <v>-0.002922719416988683</v>
       </c>
       <c r="D87">
-        <v>-0.00900322669526283</v>
+        <v>-0.004381033008366346</v>
       </c>
       <c r="E87">
-        <v>0.007653783987495491</v>
+        <v>-0.004069892898910096</v>
       </c>
       <c r="F87">
-        <v>0.09246595911248165</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.09615474158764427</v>
+      </c>
+      <c r="G87">
+        <v>-0.02297474923768216</v>
+      </c>
+      <c r="H87">
+        <v>0.01524846433956167</v>
+      </c>
+      <c r="I87">
+        <v>-0.02712429408874506</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.02883295363162863</v>
+        <v>0.03307938860145613</v>
       </c>
       <c r="C88">
-        <v>-0.02203376426116857</v>
+        <v>0.00922988385499951</v>
       </c>
       <c r="D88">
-        <v>0.01270524987393662</v>
+        <v>-0.0065645822990011</v>
       </c>
       <c r="E88">
-        <v>-0.02334601649566601</v>
+        <v>0.003862177284432183</v>
       </c>
       <c r="F88">
-        <v>-0.01369412385255674</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01468809722292165</v>
+      </c>
+      <c r="G88">
+        <v>-0.03059348660174432</v>
+      </c>
+      <c r="H88">
+        <v>-0.04185198243565501</v>
+      </c>
+      <c r="I88">
+        <v>-0.006426664560659462</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.03281770758085376</v>
+        <v>0.08546654754520132</v>
       </c>
       <c r="C89">
-        <v>0.3353684168648504</v>
+        <v>-0.3877997741723272</v>
       </c>
       <c r="D89">
-        <v>-0.186602912668257</v>
+        <v>0.06119950913178204</v>
       </c>
       <c r="E89">
-        <v>0.08879084039177543</v>
+        <v>-0.07432691251900883</v>
       </c>
       <c r="F89">
-        <v>0.004907839300227599</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.03566071886171105</v>
+      </c>
+      <c r="G89">
+        <v>-0.1059955676741257</v>
+      </c>
+      <c r="H89">
+        <v>-0.03808384490479212</v>
+      </c>
+      <c r="I89">
+        <v>-0.09030857657623971</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.02553643885844203</v>
+        <v>0.05481362074585112</v>
       </c>
       <c r="C90">
-        <v>0.2794399177319497</v>
+        <v>-0.3284487486732462</v>
       </c>
       <c r="D90">
-        <v>-0.1539300898708628</v>
+        <v>0.03447662240528549</v>
       </c>
       <c r="E90">
-        <v>0.03196942956313362</v>
+        <v>-0.06779498976066353</v>
       </c>
       <c r="F90">
-        <v>0.06690805454553737</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.04090828319894946</v>
+      </c>
+      <c r="G90">
+        <v>-0.05217952489513027</v>
+      </c>
+      <c r="H90">
+        <v>-0.01164749821834855</v>
+      </c>
+      <c r="I90">
+        <v>-0.06682727297195402</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.2726133920255018</v>
+        <v>0.2890604966793596</v>
       </c>
       <c r="C91">
-        <v>-0.005989189585163309</v>
+        <v>0.05080440270104476</v>
       </c>
       <c r="D91">
-        <v>0.07774857929308596</v>
+        <v>0.01449511454334151</v>
       </c>
       <c r="E91">
-        <v>-0.05223712258175373</v>
+        <v>0.1078190601859034</v>
       </c>
       <c r="F91">
-        <v>-0.2717170479664</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.2708303031097961</v>
+      </c>
+      <c r="G91">
+        <v>0.01187472959806687</v>
+      </c>
+      <c r="H91">
+        <v>0.0473130688172703</v>
+      </c>
+      <c r="I91">
+        <v>-0.06200253251024451</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.05642282822107082</v>
+        <v>0.1221982081756829</v>
       </c>
       <c r="C92">
-        <v>0.3001277074835991</v>
+        <v>-0.3809387386963902</v>
       </c>
       <c r="D92">
-        <v>-0.2355455630919455</v>
+        <v>0.02319976674652213</v>
       </c>
       <c r="E92">
-        <v>0.01423029179981716</v>
+        <v>-0.09196472148682068</v>
       </c>
       <c r="F92">
-        <v>-0.1159865725336916</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1205921942176411</v>
+      </c>
+      <c r="G92">
+        <v>-0.3258479366509049</v>
+      </c>
+      <c r="H92">
+        <v>0.06910614898384559</v>
+      </c>
+      <c r="I92">
+        <v>0.1186252701409952</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.01974093884011962</v>
+        <v>0.07091556146018686</v>
       </c>
       <c r="C93">
-        <v>0.3324322387683378</v>
+        <v>-0.3980071398392348</v>
       </c>
       <c r="D93">
-        <v>-0.1993239698542196</v>
+        <v>0.05395742560558859</v>
       </c>
       <c r="E93">
-        <v>0.0499375825962817</v>
+        <v>-0.109129502367082</v>
       </c>
       <c r="F93">
-        <v>-0.008275124753402485</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.003312244923123174</v>
+      </c>
+      <c r="G93">
+        <v>-0.03016336949440187</v>
+      </c>
+      <c r="H93">
+        <v>-0.05119629585553356</v>
+      </c>
+      <c r="I93">
+        <v>-0.003585731619990206</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2794197395591108</v>
+        <v>0.3113446793908363</v>
       </c>
       <c r="C94">
-        <v>0.1183576322768217</v>
+        <v>-0.04218314013702588</v>
       </c>
       <c r="D94">
-        <v>0.003140497238126583</v>
+        <v>0.04400751149120424</v>
       </c>
       <c r="E94">
-        <v>-0.0255559738790437</v>
+        <v>0.1191423096174609</v>
       </c>
       <c r="F94">
-        <v>-0.3396707248318208</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.3108278757062968</v>
+      </c>
+      <c r="G94">
+        <v>-0.04291256261411733</v>
+      </c>
+      <c r="H94">
+        <v>0.2218593128594504</v>
+      </c>
+      <c r="I94">
+        <v>-0.01491234735685698</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.1663635514858729</v>
+        <v>0.1315340443563409</v>
       </c>
       <c r="C95">
-        <v>-0.03369515162004791</v>
+        <v>0.0548919350086322</v>
       </c>
       <c r="D95">
-        <v>0.04148210033482335</v>
+        <v>0.08293674229775855</v>
       </c>
       <c r="E95">
-        <v>0.04869052796007988</v>
+        <v>0.03100707792807302</v>
       </c>
       <c r="F95">
-        <v>-0.3741790799199889</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.1122028240943487</v>
+      </c>
+      <c r="G95">
+        <v>-0.1461647466803845</v>
+      </c>
+      <c r="H95">
+        <v>-0.8620250801202493</v>
+      </c>
+      <c r="I95">
+        <v>0.3547280887369929</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.2103863148894756</v>
+        <v>0.2098652100545978</v>
       </c>
       <c r="C98">
-        <v>0.09240942820214774</v>
+        <v>-0.06390725752567716</v>
       </c>
       <c r="D98">
-        <v>-0.03842159312836348</v>
+        <v>0.06504481834479474</v>
       </c>
       <c r="E98">
-        <v>0.09530001616455124</v>
+        <v>-0.02583341975961867</v>
       </c>
       <c r="F98">
-        <v>0.08548618032813705</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.1697084459084438</v>
+      </c>
+      <c r="G98">
+        <v>0.3433610097991623</v>
+      </c>
+      <c r="H98">
+        <v>-0.03132830755859973</v>
+      </c>
+      <c r="I98">
+        <v>0.1107508278483634</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.03158440610088081</v>
+        <v>0.0179097318120178</v>
       </c>
       <c r="C101">
-        <v>-0.01710229963915467</v>
+        <v>0.03053412848665812</v>
       </c>
       <c r="D101">
-        <v>0.03701458662316767</v>
+        <v>-0.006236159052390599</v>
       </c>
       <c r="E101">
-        <v>-0.0170543501042621</v>
+        <v>0.03584148780764938</v>
       </c>
       <c r="F101">
-        <v>0.02390100974041966</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.06240466504911819</v>
+      </c>
+      <c r="G101">
+        <v>-0.1105332609509309</v>
+      </c>
+      <c r="H101">
+        <v>0.03185283752262288</v>
+      </c>
+      <c r="I101">
+        <v>0.1167743344486616</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1041236264742084</v>
+        <v>0.1177061878881918</v>
       </c>
       <c r="C102">
-        <v>-0.01147277569625597</v>
+        <v>0.02613942581603311</v>
       </c>
       <c r="D102">
-        <v>0.04706124181339652</v>
+        <v>-0.005875766051806429</v>
       </c>
       <c r="E102">
-        <v>-0.04516835764261201</v>
+        <v>0.05441484349723921</v>
       </c>
       <c r="F102">
-        <v>-0.09703624480500775</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.1150088822979839</v>
+      </c>
+      <c r="G102">
+        <v>-0.0002058239977985363</v>
+      </c>
+      <c r="H102">
+        <v>0.002734036384536646</v>
+      </c>
+      <c r="I102">
+        <v>-0.05623535154338351</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>-0.0193819046797081</v>
+        <v>0.02863627160530655</v>
       </c>
       <c r="C103">
-        <v>-0.006339621242806996</v>
+        <v>0.007914066457087088</v>
       </c>
       <c r="D103">
-        <v>0.01578828510255173</v>
+        <v>-0.009217494593137946</v>
       </c>
       <c r="E103">
-        <v>-0.007073885911135565</v>
+        <v>0.01823295220445832</v>
       </c>
       <c r="F103">
-        <v>-0.03705948152526822</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.0273684693292947</v>
+      </c>
+      <c r="G103">
+        <v>-0.01959303978678706</v>
+      </c>
+      <c r="H103">
+        <v>-0.007386860932449082</v>
+      </c>
+      <c r="I103">
+        <v>-0.01305954309911297</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
